--- a/analysis/failedTestDetails.xlsx
+++ b/analysis/failedTestDetails.xlsx
@@ -5,100 +5,177 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabheemanadhuni/Downloads/hackathon/AutomationFramework/analysis/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabheemanadhuni/Downloads/hackathon/checkin/auto-noise-cancellation/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A317B21F-8788-594A-8206-EDB0094115FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD638F8B-FEA3-6C43-9E41-CEACD09932A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="1500" windowWidth="28040" windowHeight="17240" xr2:uid="{FFFCF1A5-D642-9B49-89EA-FE281DFFEC9E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" r:id="rId1"/>
+    <sheet name="ErrorDetails" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>TestId</t>
   </si>
   <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>sessionId</t>
+  </si>
+  <si>
+    <t>timestamp</t>
+  </si>
+  <si>
     <t>errorCode</t>
   </si>
   <si>
     <t>errorMessage</t>
   </si>
   <si>
-    <t>logEntry</t>
-  </si>
-  <si>
-    <t>TC1</t>
+    <t>exceptionMessage</t>
+  </si>
+  <si>
+    <t>TC2</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/</t>
+  </si>
+  <si>
+    <t>Qsn1REVPRq9P</t>
+  </si>
+  <si>
+    <t>Fri Jun 06 06:46:00 IST 2025</t>
+  </si>
+  <si>
+    <t>ERR-2002</t>
+  </si>
+  <si>
+    <t>Something went wrong. Please try again later.</t>
+  </si>
+  <si>
+    <t>Authentication failed</t>
+  </si>
+  <si>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/inventory.html</t>
+  </si>
+  <si>
+    <t>6jDYmf11Vjw6</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 08:23:00 IST 2025</t>
+  </si>
+  <si>
+    <t>ERR-3003</t>
+  </si>
+  <si>
+    <t>Sorry, your request cannot be processed. Please check your input.</t>
+  </si>
+  <si>
+    <t>Invalid input parameter</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Jro3mdHuld2e</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 14:41:30 IST 2025</t>
   </si>
   <si>
     <t>ERR-4004</t>
   </si>
   <si>
+    <t>The requested resource could not be found.</t>
+  </si>
+  <si>
     <t>Resource not found</t>
   </si>
   <si>
-    <t>FATAL - ERR-4004: Resource not found in module Tampflex. User: miles.schuster, SessionID: 292a6028-2064-46f1-98a4-2d90283bd12f</t>
-  </si>
-  <si>
-    <t>TC2</t>
-  </si>
-  <si>
-    <t>ERR-2002</t>
-  </si>
-  <si>
-    <t>Authentication failed</t>
-  </si>
-  <si>
-    <t>ERROR - ERR-2002: Authentication failed in module Otcom. User: curtis.lakin, SessionID: 1fdcd4c4-5740-467c-b533-2e00b3818c59</t>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>d1n69deS8ctK</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 12:53:30 IST 2025</t>
   </si>
   <si>
     <t>ERR-5005</t>
   </si>
   <si>
+    <t>Sorry, your request cannot processed. Please try after sometime.</t>
+  </si>
+  <si>
     <t>Internal server error</t>
   </si>
   <si>
-    <t>ERROR - ERR-5005: Internal server error in module Hatity. User: kasie.ankunding, SessionID: 0f210e9c-8293-4087-bfed-98d284d7bc54</t>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>a2n69deS9ctK</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 12:55:30 IST 2025</t>
+  </si>
+  <si>
+    <t>NOT FOUND</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>bycz2HaXnWV5</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 08:04:00 IST 2025</t>
   </si>
   <si>
     <t>ERR-1001</t>
   </si>
   <si>
+    <t>Your session has expired. Please log in again.</t>
+  </si>
+  <si>
     <t>connection timeout</t>
   </si>
   <si>
-    <t>WARN - ERR-1001: connection timeout in module Fixflex. User: nicky.stracke, SessionID: b92e0e36-d08c-4864-b072-bcf6b0a5868f</t>
-  </si>
-  <si>
-    <t>ERR-3003</t>
-  </si>
-  <si>
-    <t>Invalid input parameter</t>
-  </si>
-  <si>
-    <t>WARN - ERR-3003: Invalid input parameter in module Tempsoft. User: kyle.windler, SessionID: 5f98e075-91e7-4882-bec8-79b4bb6920ea</t>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>1bcOhJxVg2Pn</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 08:07:00 IST 2025</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>3bdOhJxVg4Pn</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 08:06:30 IST 2025</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>pKP07NvDThiL</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 08:07:30 IST 2025</t>
   </si>
 </sst>
 </file>
@@ -108,8 +185,8 @@
   <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,19 +547,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19524157-07CC-714C-99B8-8B8E992B5835}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD7"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" customWidth="true" width="30.33203125" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="6.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="41.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.83203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.6640625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,33 +578,221 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/failedTestDetails.xlsx
+++ b/analysis/failedTestDetails.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/meghanabheemanadhuni/Downloads/hackathon/checkin/auto-noise-cancellation/analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD638F8B-FEA3-6C43-9E41-CEACD09932A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E707DB2-09A9-004D-8590-D13B7DA3BE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="29400" windowHeight="18360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ErrorDetails" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">ErrorDetails!$A$1:$G$10</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="69">
   <si>
     <t>TestId</t>
   </si>
@@ -49,133 +52,184 @@
     <t>https://www.saucedemo.com/</t>
   </si>
   <si>
-    <t>Qsn1REVPRq9P</t>
-  </si>
-  <si>
-    <t>Fri Jun 06 06:46:00 IST 2025</t>
+    <t>TC3</t>
+  </si>
+  <si>
+    <t>https://www.saucedemo.com/inventory.html</t>
+  </si>
+  <si>
+    <t>6jDYmf11Vjw6</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 08:23:00 IST 2025</t>
+  </si>
+  <si>
+    <t>TC4</t>
+  </si>
+  <si>
+    <t>Jro3mdHuld2e</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 14:41:30 IST 2025</t>
+  </si>
+  <si>
+    <t>TC5</t>
+  </si>
+  <si>
+    <t>d1n69deS8ctK</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 12:53:30 IST 2025</t>
+  </si>
+  <si>
+    <t>ERR-5005</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>a2n69deS9ctK</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 12:55:30 IST 2025</t>
+  </si>
+  <si>
+    <t>NOT FOUND</t>
+  </si>
+  <si>
+    <t>TC7</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 08:04:00 IST 2025</t>
+  </si>
+  <si>
+    <t>ERR-1001</t>
+  </si>
+  <si>
+    <t>TC8</t>
+  </si>
+  <si>
+    <t>TC9</t>
+  </si>
+  <si>
+    <t>3bdOhJxVg4Pn</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 08:06:30 IST 2025</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>vT0PjoF5NT12</t>
+  </si>
+  <si>
+    <t>Your request cannot be processed at this moment. Please check your input and try again.</t>
+  </si>
+  <si>
+    <t>authentication failure</t>
+  </si>
+  <si>
+    <t>srkCyalYX7Jx</t>
+  </si>
+  <si>
+    <t>07Gyz20b5wKG</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:20:54 IST 2025</t>
+  </si>
+  <si>
+    <t>ERR-9009</t>
+  </si>
+  <si>
+    <t>Malformed input payload. Missing necessary fields.</t>
+  </si>
+  <si>
+    <t>invalid format of request</t>
+  </si>
+  <si>
+    <t>Hr1oSDKmeLPz</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:41:58 IST 2025</t>
+  </si>
+  <si>
+    <t>Data validation checks failed</t>
+  </si>
+  <si>
+    <t>external API failed</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:31:30 IST 2025</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:32:01 IST 2025</t>
+  </si>
+  <si>
+    <t>CPLgs0sfTUQY</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:33:30 IST 2025</t>
+  </si>
+  <si>
+    <t>ERR-3003</t>
+  </si>
+  <si>
+    <t>Unexpected error occurred during processing.</t>
+  </si>
+  <si>
+    <t>unauthorized access attempt</t>
+  </si>
+  <si>
+    <t>2qGWP4WitQqe</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:57:30 IST 2025</t>
+  </si>
+  <si>
+    <t>ERR-6006</t>
+  </si>
+  <si>
+    <t>Something went wrong. Please try again later.</t>
+  </si>
+  <si>
+    <t>input validation error</t>
+  </si>
+  <si>
+    <t>aGxsaVMu48N3</t>
+  </si>
+  <si>
+    <t>iD15Fo4UJRlz</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 08:18:00 IST 2025</t>
   </si>
   <si>
     <t>ERR-2002</t>
   </si>
   <si>
-    <t>Something went wrong. Please try again later.</t>
-  </si>
-  <si>
-    <t>Authentication failed</t>
-  </si>
-  <si>
-    <t>TC3</t>
-  </si>
-  <si>
-    <t>https://www.saucedemo.com/inventory.html</t>
-  </si>
-  <si>
-    <t>6jDYmf11Vjw6</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 08:23:00 IST 2025</t>
-  </si>
-  <si>
-    <t>ERR-3003</t>
-  </si>
-  <si>
-    <t>Sorry, your request cannot be processed. Please check your input.</t>
-  </si>
-  <si>
-    <t>Invalid input parameter</t>
-  </si>
-  <si>
-    <t>TC4</t>
-  </si>
-  <si>
-    <t>Jro3mdHuld2e</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 14:41:30 IST 2025</t>
+    <t>Permission denied. Access restricted.</t>
+  </si>
+  <si>
+    <t>external API failure</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:31:00 IST 2025</t>
   </si>
   <si>
     <t>ERR-4004</t>
   </si>
   <si>
-    <t>The requested resource could not be found.</t>
-  </si>
-  <si>
-    <t>Resource not found</t>
-  </si>
-  <si>
-    <t>TC5</t>
-  </si>
-  <si>
-    <t>d1n69deS8ctK</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 12:53:30 IST 2025</t>
-  </si>
-  <si>
-    <t>ERR-5005</t>
-  </si>
-  <si>
-    <t>Sorry, your request cannot processed. Please try after sometime.</t>
-  </si>
-  <si>
-    <t>Internal server error</t>
-  </si>
-  <si>
-    <t>TC6</t>
-  </si>
-  <si>
-    <t>a2n69deS9ctK</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 12:55:30 IST 2025</t>
-  </si>
-  <si>
-    <t>NOT FOUND</t>
-  </si>
-  <si>
-    <t>TC7</t>
-  </si>
-  <si>
-    <t>bycz2HaXnWV5</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 08:04:00 IST 2025</t>
-  </si>
-  <si>
-    <t>ERR-1001</t>
-  </si>
-  <si>
-    <t>Your session has expired. Please log in again.</t>
-  </si>
-  <si>
-    <t>connection timeout</t>
-  </si>
-  <si>
-    <t>TC8</t>
-  </si>
-  <si>
-    <t>1bcOhJxVg2Pn</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 08:07:00 IST 2025</t>
-  </si>
-  <si>
-    <t>TC9</t>
-  </si>
-  <si>
-    <t>3bdOhJxVg4Pn</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 08:06:30 IST 2025</t>
-  </si>
-  <si>
-    <t>TC10</t>
-  </si>
-  <si>
-    <t>pKP07NvDThiL</t>
-  </si>
-  <si>
-    <t>Thu Jun 05 08:07:30 IST 2025</t>
+    <t>Data validation failed.</t>
+  </si>
+  <si>
+    <t>Thu Jun 05 07:21:10 IST 2025</t>
+  </si>
+  <si>
+    <t>There was a timeout while connecting to the backend services.</t>
+  </si>
+  <si>
+    <t>resource not available</t>
   </si>
 </sst>
 </file>
@@ -548,10 +602,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -565,7 +620,7 @@
     <col min="7" max="7" bestFit="true" customWidth="true" width="18.5" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,206 +651,215 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="G4" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="G9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:G10" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="ERR-1001"/>
+        <filter val="ERR-5005"/>
+        <filter val="ERR-9009"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/analysis/failedTestDetails.xlsx
+++ b/analysis/failedTestDetails.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="69">
   <si>
     <t>TestId</t>
   </si>
